--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,202 +43,199 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>digital</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>twitter</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>…</t>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,16 +695,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9519230769230769</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>0.84</v>
+      </c>
+      <c r="L6">
         <v>42</v>
       </c>
-      <c r="K6">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
       <c r="M6">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9375</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="L7">
         <v>43</v>
       </c>
-      <c r="K7">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
       <c r="M7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.7466666666666667</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.7368421052631579</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8823529411764706</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5925925925925926</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.5789473684210527</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,49 +1174,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8666666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8636363636363636</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.4848484848484849</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L14">
         <v>16</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.4782608695652174</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,38 +1324,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L16">
-        <v>16</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.725</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.3958333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6956521739130435</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.3928571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6808510638297872</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.3518518518518519</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6538461538461539</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>0.3461538461538461</v>
@@ -1577,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6521739130434783</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.3414634146341464</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.3260869565217391</v>
+        <v>0.3060109289617486</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1669,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1677,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6428571428571429</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.3220338983050847</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1719,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6071428571428571</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.3005464480874317</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L24">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>768</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.2622950819672131</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1827,13 +1824,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.2394366197183098</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1869,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1877,13 +1874,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5714285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1895,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.2352941176470588</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5142857142857142</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1948,16 +1945,16 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.2210526315789474</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1977,13 +1974,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5128205128205128</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1995,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.2153846153846154</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,407 +2024,387 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3928571428571428</v>
+        <v>0.06574394463667819</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
+        <v>270</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.1789473684210526</v>
+      </c>
+      <c r="L31">
         <v>17</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="M31">
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K30">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="K32">
+        <v>0.1166077738515901</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>0.1058823529411765</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0.1055555555555556</v>
+      </c>
+      <c r="L34">
+        <v>57</v>
+      </c>
+      <c r="M34">
+        <v>57</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.09487951807228916</v>
+      </c>
+      <c r="L35">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31">
-        <v>0.1314814814814815</v>
-      </c>
-      <c r="L31">
+      <c r="M35">
+        <v>63</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.08116883116883117</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M31">
-        <v>71</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="C32">
-        <v>19</v>
-      </c>
-      <c r="D32">
-        <v>19</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>59</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32">
-        <v>0.1184210526315789</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>9</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.06143344709897611</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>0.25</v>
-      </c>
-      <c r="F33">
-        <v>0.75</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>275</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.1010558069381599</v>
-      </c>
-      <c r="L33">
-        <v>67</v>
-      </c>
-      <c r="M33">
-        <v>68</v>
-      </c>
-      <c r="N33">
-        <v>0.99</v>
-      </c>
-      <c r="O33">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="L34">
-        <v>55</v>
-      </c>
-      <c r="M34">
-        <v>55</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.08029197080291971</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
+      <c r="K37">
+        <v>0.07624633431085044</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K36">
-        <v>0.0761904761904762</v>
-      </c>
-      <c r="L36">
-        <v>24</v>
-      </c>
-      <c r="M36">
-        <v>24</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.07420494699646643</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K38">
-        <v>0.06764705882352941</v>
+        <v>0.07301587301587302</v>
       </c>
       <c r="L38">
         <v>23</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.06569343065693431</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>0.05529953917050692</v>
+      </c>
+      <c r="L40">
+        <v>96</v>
+      </c>
+      <c r="M40">
+        <v>96</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K39">
-        <v>0.0594002306805075</v>
-      </c>
-      <c r="L39">
-        <v>103</v>
-      </c>
-      <c r="M39">
-        <v>105</v>
-      </c>
-      <c r="N39">
-        <v>0.98</v>
-      </c>
-      <c r="O39">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
+      <c r="K41">
+        <v>0.04353393085787452</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K40">
-        <v>0.04871794871794872</v>
-      </c>
-      <c r="L40">
-        <v>38</v>
-      </c>
-      <c r="M40">
-        <v>39</v>
-      </c>
-      <c r="N40">
-        <v>0.97</v>
-      </c>
-      <c r="O40">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="L41">
-        <v>13</v>
-      </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>275</v>
+      <c r="K42">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L42">
+        <v>12</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>29</v>
+      </c>
+      <c r="N43">
+        <v>0.34</v>
+      </c>
+      <c r="O43">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
